--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ERPFinalProj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C83FB04B-08A3-4E72-B29B-434D042E696D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DDAA14ED-34BB-440B-BBF2-0C1A4BBD5C1C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
   <si>
     <t>Process</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>NPAutomation_Testing</t>
-  </si>
-  <si>
     <t>a3Z1K000000hsDz</t>
   </si>
   <si>
@@ -144,88 +141,73 @@
     <t>Icitem</t>
   </si>
   <si>
+    <t>a1E1K000009GyGN</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTaw</t>
+  </si>
+  <si>
+    <t>QuantityBefore</t>
+  </si>
+  <si>
+    <t>QuantityAfter</t>
+  </si>
+  <si>
+    <t>Close PO AP Batch</t>
+  </si>
+  <si>
+    <t>a351K000000eRuC</t>
+  </si>
+  <si>
+    <t>NPRegression22.18_HomeCurr</t>
+  </si>
+  <si>
+    <t>NPRegression22.18_ForeignCurr</t>
+  </si>
+  <si>
+    <t>a3Z1K0000008Bhe</t>
+  </si>
+  <si>
+    <t>NP_Regression</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>443.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>948.0</t>
+  </si>
+  <si>
     <t>a1E1K000008NTam</t>
   </si>
   <si>
-    <t>a1E1K000009GyGN</t>
-  </si>
-  <si>
-    <t>a1E1K000008NTaw</t>
-  </si>
-  <si>
-    <t>QuantityBefore</t>
-  </si>
-  <si>
-    <t>QuantityAfter</t>
-  </si>
-  <si>
-    <t>Close PO AP Batch</t>
-  </si>
-  <si>
-    <t>a351K000000eRuC</t>
-  </si>
-  <si>
-    <t>633.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>259.0</t>
-  </si>
-  <si>
-    <t>635.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>262.0</t>
-  </si>
-  <si>
-    <t>641.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>265.0</t>
-  </si>
-  <si>
-    <t>643.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>268.0</t>
-  </si>
-  <si>
-    <t>645.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>271.0</t>
-  </si>
-  <si>
-    <t>647.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>274.0</t>
-  </si>
-  <si>
-    <t>649.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>277.0</t>
+    <t>958.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>482.0</t>
+  </si>
+  <si>
+    <t>960.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>485.0</t>
   </si>
 </sst>
 </file>
@@ -235,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,222 +236,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -552,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -578,65 +344,11 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -650,44 +362,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1002,13 +678,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0343F24-40D4-4440-9D54-55228C8E570C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1029,13 +709,27 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +742,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +778,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1099,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1107,7 +801,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1116,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>264</v>
+        <v>45.23</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -1130,7 +824,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1145,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>410</v>
+        <v>44.23</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -1153,7 +847,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1162,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1176,7 +870,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1185,13 +879,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -1207,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65B3F5-9AF7-4EF8-99A3-B6CFE9D357A8}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,13 +946,13 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1287,13 +981,13 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1357,13 +1051,13 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1154,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,10 +1178,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1496,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1204,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1235,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1553,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
   <si>
     <t>Process</t>
   </si>
@@ -208,6 +208,36 @@
   </si>
   <si>
     <t>485.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>490.0</t>
+  </si>
+  <si>
+    <t>1002.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>493.0</t>
+  </si>
+  <si>
+    <t>1004.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>496.0</t>
+  </si>
+  <si>
+    <t>1047.0</t>
+  </si>
+  <si>
+    <t>498.0</t>
   </si>
 </sst>
 </file>
@@ -217,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +266,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -318,7 +564,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -344,11 +590,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -362,8 +662,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -984,10 +1320,10 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1019,10 +1355,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,10 +1390,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>Process</t>
   </si>
@@ -208,6 +208,24 @@
   </si>
   <si>
     <t>485.0</t>
+  </si>
+  <si>
+    <t>1291.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>733.0</t>
+  </si>
+  <si>
+    <t>1295.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>739.0</t>
   </si>
 </sst>
 </file>
@@ -217,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +254,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -318,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -344,11 +434,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -362,8 +470,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -984,10 +1104,10 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1019,10 +1139,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,10 +1174,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DDAA14ED-34BB-440B-BBF2-0C1A4BBD5C1C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{34508366-3207-4AC5-A73C-54C84121BDDF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
+    <workbookView activeTab="2" windowHeight="11040" windowWidth="20730" xWindow="-120" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="POHeader" r:id="rId1" sheetId="4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>Process</t>
   </si>
@@ -171,24 +171,6 @@
     <t>NP_Regression</t>
   </si>
   <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>440.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>443.0</t>
-  </si>
-  <si>
-    <t>938.0</t>
-  </si>
-  <si>
-    <t>948.0</t>
-  </si>
-  <si>
     <t>a1E1K000008NTam</t>
   </si>
   <si>
@@ -208,6 +190,39 @@
   </si>
   <si>
     <t>485.0</t>
+  </si>
+  <si>
+    <t>GLCMP</t>
+  </si>
+  <si>
+    <t>Bank of Dad</t>
+  </si>
+  <si>
+    <t>Mountain Manufacturing (100)</t>
+  </si>
+  <si>
+    <t>MMDD Bank Account</t>
+  </si>
+  <si>
+    <t>BankAccount</t>
+  </si>
+  <si>
+    <t>1507.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>843.0</t>
+  </si>
+  <si>
+    <t>1509.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>846.0</t>
   </si>
 </sst>
 </file>
@@ -348,10 +363,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
@@ -678,19 +694,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0343F24-40D4-4440-9D54-55228C8E570C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,8 +720,14 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -717,8 +740,14 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -731,9 +760,16 @@
       <c r="D3" t="s">
         <v>41</v>
       </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -901,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65B3F5-9AF7-4EF8-99A3-B6CFE9D357A8}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -981,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1019,10 +1055,10 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,10 +1090,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="105" x14ac:knownFonts="1">
+  <fonts count="165" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,366 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -876,7 +1236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1037,11 +1397,101 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1145,8 +1595,68 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="104" fillId="0" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="164" fillId="0" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="165" x14ac:knownFonts="1">
+  <fonts count="177" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1236,7 +1308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1487,11 +1559,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="177">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1655,8 +1745,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="164" fillId="0" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="176" fillId="0" borderId="87" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/SYDATA-POtoPOAP Match.xlsx
+++ b/templates/SYDATA-POtoPOAP Match.xlsx
@@ -235,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="165" x14ac:knownFonts="1">
+  <fonts count="261" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +254,582 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1236,7 +1812,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="130">
     <border>
       <left/>
       <right/>
@@ -1487,11 +2063,155 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="261">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1655,8 +2375,104 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="164" fillId="0" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="260" fillId="0" borderId="129" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
